--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H2">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>1098.609555123321</v>
+        <v>66.61006935687644</v>
       </c>
       <c r="R2">
-        <v>9887.485996109892</v>
+        <v>599.490624211888</v>
       </c>
       <c r="S2">
-        <v>0.01006386341714231</v>
+        <v>0.00072906073816197</v>
       </c>
       <c r="T2">
-        <v>0.01006386341714231</v>
+        <v>0.00072906073816197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H3">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>8426.420032890052</v>
+        <v>6292.97642649045</v>
       </c>
       <c r="R3">
-        <v>75837.78029601046</v>
+        <v>56636.78783841405</v>
       </c>
       <c r="S3">
-        <v>0.07719060872081894</v>
+        <v>0.06887790514302129</v>
       </c>
       <c r="T3">
-        <v>0.07719060872081893</v>
+        <v>0.06887790514302129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H4">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>1401.071015206755</v>
+        <v>1008.31782936382</v>
       </c>
       <c r="R4">
-        <v>12609.63913686079</v>
+        <v>9074.860464274385</v>
       </c>
       <c r="S4">
-        <v>0.01283457554961363</v>
+        <v>0.01103624344000135</v>
       </c>
       <c r="T4">
-        <v>0.01283457554961363</v>
+        <v>0.01103624344000135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H5">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>5164.036496781991</v>
+        <v>2842.070185541425</v>
       </c>
       <c r="R5">
-        <v>46476.32847103791</v>
+        <v>25578.63166987283</v>
       </c>
       <c r="S5">
-        <v>0.04730539411603626</v>
+        <v>0.03110703542849642</v>
       </c>
       <c r="T5">
-        <v>0.04730539411603626</v>
+        <v>0.03110703542849642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J6">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>4557.70497463454</v>
+        <v>370.0238538437476</v>
       </c>
       <c r="R6">
-        <v>41019.34477171086</v>
+        <v>3330.214684593728</v>
       </c>
       <c r="S6">
-        <v>0.04175106628778889</v>
+        <v>0.004049986235196887</v>
       </c>
       <c r="T6">
-        <v>0.04175106628778889</v>
+        <v>0.004049986235196886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J7">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>34957.9487299763</v>
+        <v>34957.94872997629</v>
       </c>
       <c r="R7">
         <v>314621.5385697866</v>
       </c>
       <c r="S7">
-        <v>0.320233899042006</v>
+        <v>0.3826218490954588</v>
       </c>
       <c r="T7">
-        <v>0.3202338990420059</v>
+        <v>0.3826218490954587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J8">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>5812.500270041149</v>
+        <v>5601.279997497049</v>
       </c>
       <c r="R8">
-        <v>52312.50243037033</v>
+        <v>50411.51997747344</v>
       </c>
       <c r="S8">
-        <v>0.05324567637064703</v>
+        <v>0.06130714723847532</v>
       </c>
       <c r="T8">
-        <v>0.05324567637064703</v>
+        <v>0.06130714723847532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J9">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>21423.58467648283</v>
+        <v>15787.90974250635</v>
       </c>
       <c r="R9">
-        <v>192812.2620883455</v>
+        <v>142091.1876825571</v>
       </c>
       <c r="S9">
-        <v>0.1962517339160626</v>
+        <v>0.172801878785583</v>
       </c>
       <c r="T9">
-        <v>0.1962517339160626</v>
+        <v>0.172801878785583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H10">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>378.3395526122011</v>
+        <v>38.30236568608489</v>
       </c>
       <c r="R10">
-        <v>3405.05597350981</v>
+        <v>344.721291174764</v>
       </c>
       <c r="S10">
-        <v>0.003465796893023118</v>
+        <v>0.0004192271719585588</v>
       </c>
       <c r="T10">
-        <v>0.003465796893023118</v>
+        <v>0.0004192271719585587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H11">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>2901.893553081509</v>
+        <v>3618.610319258972</v>
       </c>
       <c r="R11">
-        <v>26117.04197773358</v>
+        <v>32567.49287333075</v>
       </c>
       <c r="S11">
-        <v>0.02658292951586414</v>
+        <v>0.03960642491369989</v>
       </c>
       <c r="T11">
-        <v>0.02658292951586413</v>
+        <v>0.03960642491369988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H12">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>482.5013387142288</v>
+        <v>579.806605832717</v>
       </c>
       <c r="R12">
-        <v>4342.51204842806</v>
+        <v>5218.259452494452</v>
       </c>
       <c r="S12">
-        <v>0.004419975730925842</v>
+        <v>0.006346101064312261</v>
       </c>
       <c r="T12">
-        <v>0.004419975730925842</v>
+        <v>0.00634610106431226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H13">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>1778.392740855292</v>
+        <v>1634.2575920301</v>
       </c>
       <c r="R13">
-        <v>16005.53466769763</v>
+        <v>14708.3183282709</v>
       </c>
       <c r="S13">
-        <v>0.01629104859186845</v>
+        <v>0.01788728127587916</v>
       </c>
       <c r="T13">
-        <v>0.01629104859186845</v>
+        <v>0.01788728127587916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H14">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>1418.880404277083</v>
+        <v>121.1256661101867</v>
       </c>
       <c r="R14">
-        <v>12769.92363849375</v>
+        <v>1090.13099499168</v>
       </c>
       <c r="S14">
-        <v>0.01299771927825744</v>
+        <v>0.001325745017191408</v>
       </c>
       <c r="T14">
-        <v>0.01299771927825744</v>
+        <v>0.001325745017191408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H15">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>10882.9221511126</v>
+        <v>11443.32934695659</v>
       </c>
       <c r="R15">
-        <v>97946.29936001336</v>
+        <v>102989.9641226093</v>
       </c>
       <c r="S15">
-        <v>0.09969350948881504</v>
+        <v>0.1252495639364086</v>
       </c>
       <c r="T15">
-        <v>0.09969350948881503</v>
+        <v>0.1252495639364086</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H16">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>1809.516583218058</v>
+        <v>1833.554144466027</v>
       </c>
       <c r="R16">
-        <v>16285.64924896252</v>
+        <v>16501.98730019424</v>
       </c>
       <c r="S16">
-        <v>0.01657615998298537</v>
+        <v>0.02006862252105342</v>
       </c>
       <c r="T16">
-        <v>0.01657615998298537</v>
+        <v>0.02006862252105342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H17">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>6669.476119232509</v>
+        <v>5168.102175531946</v>
       </c>
       <c r="R17">
-        <v>60025.28507309258</v>
+        <v>46512.91957978751</v>
       </c>
       <c r="S17">
-        <v>0.06109604309814495</v>
+        <v>0.05656592799510173</v>
       </c>
       <c r="T17">
-        <v>0.06109604309814495</v>
+        <v>0.05656592799510172</v>
       </c>
     </row>
   </sheetData>
